--- a/workfile/锐安项目文档/app/待办/待办问题说明.xlsx
+++ b/workfile/锐安项目文档/app/待办/待办问题说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1031,10 +1031,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,33 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,11 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C111" sqref="C6:C111"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1396,11 +1395,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" ht="49.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1408,8 +1407,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1420,8 +1419,8 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
+    <row r="4" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1432,8 +1431,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="35.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
+    <row r="5" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1444,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1454,8 +1453,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
+    <row r="7" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +1464,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1474,8 +1473,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
+    <row r="9" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1484,8 +1483,8 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
+    <row r="10" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1496,8 +1495,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="35.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
+    <row r="11" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1509,7 +1508,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1518,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1529,7 +1528,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1538,8 +1537,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="33.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
+    <row r="15" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +1548,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="23"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,8 +1557,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1570,8 +1569,8 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
+    <row r="18" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1580,8 +1579,8 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
+    <row r="19" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,7 +1592,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1604,8 +1603,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
+    <row r="21" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="17"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,7 +1614,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1627,7 +1626,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,7 +1636,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1647,7 +1646,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1657,7 +1656,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="12"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1667,7 +1666,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="12"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1677,7 +1676,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1686,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1697,7 +1696,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,7 +1706,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1716,8 +1715,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1729,7 +1728,7 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="22"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1738,8 +1737,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
+    <row r="34" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
       <c r="C34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1748,8 +1747,8 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="22"/>
+    <row r="35" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1759,7 +1758,7 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="22"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1768,8 +1767,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
+    <row r="37" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
       <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1779,7 +1778,7 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="22"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1789,7 +1788,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="22"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1798,8 +1797,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
+    <row r="40" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
       <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1809,7 +1808,7 @@
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="22"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1818,8 +1817,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="22"/>
+    <row r="42" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
       <c r="C42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1829,7 +1828,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1838,8 +1837,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="33.75" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1851,7 +1850,7 @@
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="12"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1861,7 +1860,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="12"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1870,8 +1869,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="12"/>
+    <row r="47" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="17"/>
       <c r="C47" s="1" t="s">
         <v>53</v>
       </c>
@@ -1881,7 +1880,7 @@
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="12"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="1" t="s">
         <v>54</v>
       </c>
@@ -1891,7 +1890,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="12"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="1" t="s">
         <v>55</v>
       </c>
@@ -1901,7 +1900,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="12"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="1" t="s">
         <v>56</v>
       </c>
@@ -1910,8 +1909,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="12"/>
+    <row r="51" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="17"/>
       <c r="C51" s="1" t="s">
         <v>57</v>
       </c>
@@ -1920,8 +1919,8 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="11" t="s">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -1932,8 +1931,8 @@
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="2:5" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="12"/>
+    <row r="53" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="17"/>
       <c r="C53" s="8" t="s">
         <v>60</v>
       </c>
@@ -1943,7 +1942,7 @@
       <c r="E53" s="9"/>
     </row>
     <row r="54" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="12"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="8" t="s">
         <v>61</v>
       </c>
@@ -1952,8 +1951,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="35.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="12"/>
+    <row r="55" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="17"/>
       <c r="C55" s="8" t="s">
         <v>62</v>
       </c>
@@ -1965,7 +1964,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="12"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="8" t="s">
         <v>63</v>
       </c>
@@ -1975,7 +1974,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="12"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="8" t="s">
         <v>64</v>
       </c>
@@ -1985,7 +1984,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="12"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="8" t="s">
         <v>65</v>
       </c>
@@ -1995,7 +1994,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="12"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="8" t="s">
         <v>66</v>
       </c>
@@ -2005,7 +2004,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2017,7 +2016,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="12"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="1" t="s">
         <v>69</v>
       </c>
@@ -2027,7 +2026,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="12"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="1" t="s">
         <v>70</v>
       </c>
@@ -2037,7 +2036,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="12"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="1" t="s">
         <v>71</v>
       </c>
@@ -2047,7 +2046,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="12"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="1" t="s">
         <v>72</v>
       </c>
@@ -2057,7 +2056,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="12"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="1" t="s">
         <v>73</v>
       </c>
@@ -2067,7 +2066,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="12"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="1" t="s">
         <v>74</v>
       </c>
@@ -2076,8 +2075,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="12"/>
+    <row r="67" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="17"/>
       <c r="C67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2089,7 +2088,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="12"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="1" t="s">
         <v>77</v>
       </c>
@@ -2099,7 +2098,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="12"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="1" t="s">
         <v>78</v>
       </c>
@@ -2109,7 +2108,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="12"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="1" t="s">
         <v>79</v>
       </c>
@@ -2119,7 +2118,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="12"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
@@ -2129,7 +2128,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="12"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="1" t="s">
         <v>81</v>
       </c>
@@ -2138,8 +2137,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20"/>
+    <row r="73" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="21"/>
       <c r="C73" s="1" t="s">
         <v>83</v>
       </c>
@@ -2148,8 +2147,8 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="2:5" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="11" t="s">
+    <row r="74" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2161,7 +2160,7 @@
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="12"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="1" t="s">
         <v>86</v>
       </c>
@@ -2170,8 +2169,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="12"/>
+    <row r="76" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="17"/>
       <c r="C76" s="1" t="s">
         <v>87</v>
       </c>
@@ -2180,8 +2179,8 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="2:5" ht="35.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="12"/>
+    <row r="77" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="17"/>
       <c r="C77" s="1" t="s">
         <v>88</v>
       </c>
@@ -2193,7 +2192,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="12"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="1" t="s">
         <v>89</v>
       </c>
@@ -2202,8 +2201,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="12"/>
+    <row r="79" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="17"/>
       <c r="C79" s="1" t="s">
         <v>90</v>
       </c>
@@ -2215,7 +2214,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="12"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="1" t="s">
         <v>91</v>
       </c>
@@ -2225,7 +2224,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="12"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="1" t="s">
         <v>92</v>
       </c>
@@ -2235,7 +2234,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="12"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="1" t="s">
         <v>93</v>
       </c>
@@ -2244,8 +2243,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="12"/>
+    <row r="83" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="17"/>
       <c r="C83" s="1" t="s">
         <v>94</v>
       </c>
@@ -2254,8 +2253,8 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="2:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="11" t="s">
+    <row r="84" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2267,7 +2266,7 @@
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="12"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="1" t="s">
         <v>97</v>
       </c>
@@ -2277,111 +2276,111 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="12"/>
-      <c r="C86" s="13" t="s">
+      <c r="B86" s="17"/>
+      <c r="C86" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="17" t="s">
+      <c r="D86" s="24"/>
+      <c r="E86" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="12"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="18"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="19"/>
     </row>
     <row r="88" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="12"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="E88" s="18"/>
+      <c r="E88" s="19"/>
     </row>
     <row r="89" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="12"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="18"/>
+      <c r="E89" s="19"/>
     </row>
     <row r="90" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="12"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D90" s="2"/>
-      <c r="E90" s="18"/>
+      <c r="E90" s="19"/>
     </row>
     <row r="91" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="12"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="18"/>
+      <c r="E91" s="19"/>
     </row>
     <row r="92" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="12"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="18"/>
+      <c r="E92" s="19"/>
     </row>
     <row r="93" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="12"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="18"/>
+      <c r="E93" s="19"/>
     </row>
     <row r="94" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="12"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="18"/>
+      <c r="E94" s="19"/>
     </row>
     <row r="95" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="12"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D95" s="2"/>
-      <c r="E95" s="18"/>
+      <c r="E95" s="19"/>
     </row>
     <row r="96" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="12"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="18"/>
+      <c r="E96" s="19"/>
     </row>
     <row r="97" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="12"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="18"/>
+      <c r="E97" s="19"/>
     </row>
     <row r="98" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="12"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="19"/>
-    </row>
-    <row r="99" spans="2:5" ht="35.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="20"/>
+      <c r="E98" s="20"/>
+    </row>
+    <row r="99" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="21"/>
       <c r="C99" s="1" t="s">
         <v>110</v>
       </c>
@@ -2393,111 +2392,107 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="12"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="18"/>
+      <c r="E101" s="19"/>
     </row>
     <row r="102" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="12"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D102" s="2"/>
-      <c r="E102" s="18"/>
+      <c r="E102" s="19"/>
     </row>
     <row r="103" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="12"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="18"/>
+      <c r="E103" s="19"/>
     </row>
     <row r="104" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="12"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D104" s="2"/>
-      <c r="E104" s="18"/>
+      <c r="E104" s="19"/>
     </row>
     <row r="105" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="12"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="E105" s="18"/>
+      <c r="E105" s="19"/>
     </row>
     <row r="106" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="12"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="18"/>
+      <c r="E106" s="19"/>
     </row>
     <row r="107" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="12"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D107" s="2"/>
-      <c r="E107" s="18"/>
+      <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="12"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="18"/>
+      <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="12"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="18"/>
+      <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="12"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="18"/>
+      <c r="E110" s="19"/>
     </row>
     <row r="111" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="12"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="19"/>
+      <c r="E111" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E111">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:E111"/>
   <mergeCells count="16">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B16"/>

--- a/workfile/锐安项目文档/app/待办/待办问题说明.xlsx
+++ b/workfile/锐安项目文档/app/待办/待办问题说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="183">
   <si>
     <t>合作协议管理</t>
   </si>
@@ -640,47 +640,6 @@
       </rPr>
       <t>（表单中无项目可选）</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t> 审批人是（王新宏），他的代办列表没数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（使用王坤账号，同样初军良待办无待审批记录）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Microsoft YaHei UI Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郭大勇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei UI Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）  因为立项没法流程没走完，下面的都没法测  （找一个部门总监不是  王新宏 的人员）,（姜欣阳 / 杜川） 销售立项中心中没有申请立项</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完</t>
@@ -769,6 +728,98 @@
       </rPr>
       <t>（提交到达张银美或李嘉琳后无法继续）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> 审批人是（王新宏），他的代办列表没数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（使用王坤账号，同样初军良待办无待审批记录）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8/29号测试正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭大勇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）  因为立项没法流程没走完，下面的都没法测  （找一个部门总监不是  王新宏 的人员）,（姜欣阳 / 杜川） 销售立项中心中没有申请立项
+8/29 王坤测试通过</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王坤提交，无审批人，在使用初军良登陆后发现该流程页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王坤，项目里程碑更新状态点击异常关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后直接审批通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1031,6 +1082,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,6 +1129,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1396,10 +1459,10 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1471,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1420,19 +1483,19 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1444,17 +1507,17 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1464,17 +1527,17 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1484,19 +1547,19 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1508,17 +1571,17 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +1591,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1538,7 +1601,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1548,17 +1611,17 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1570,7 +1633,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1580,7 +1643,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1655,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1604,7 +1667,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1614,7 +1677,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1626,7 +1689,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,7 +1699,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,7 +1709,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1719,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1666,7 +1729,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1676,7 +1739,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1749,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1696,7 +1759,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,7 +1769,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1716,7 +1779,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1728,7 +1791,7 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1738,7 +1801,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1748,7 +1811,7 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1758,7 +1821,7 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1768,7 +1831,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1778,7 +1841,7 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1788,7 +1851,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="14"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1798,7 +1861,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="14"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1808,7 +1871,7 @@
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="14"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1818,7 +1881,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1828,7 +1891,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1838,7 +1901,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1850,7 +1913,7 @@
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="17"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1860,7 +1923,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="17"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1870,7 +1933,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="17"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="1" t="s">
         <v>53</v>
       </c>
@@ -1880,7 +1943,7 @@
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="17"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="1" t="s">
         <v>54</v>
       </c>
@@ -1890,7 +1953,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="17"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="1" t="s">
         <v>55</v>
       </c>
@@ -1900,7 +1963,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="17"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="1" t="s">
         <v>56</v>
       </c>
@@ -1910,7 +1973,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="17"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="1" t="s">
         <v>57</v>
       </c>
@@ -1920,7 +1983,7 @@
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -1932,7 +1995,7 @@
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="17"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="8" t="s">
         <v>60</v>
       </c>
@@ -1942,7 +2005,7 @@
       <c r="E53" s="9"/>
     </row>
     <row r="54" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="17"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="8" t="s">
         <v>61</v>
       </c>
@@ -1952,7 +2015,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="17"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="8" t="s">
         <v>62</v>
       </c>
@@ -1964,7 +2027,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="17"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="8" t="s">
         <v>63</v>
       </c>
@@ -1974,7 +2037,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="17"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="8" t="s">
         <v>64</v>
       </c>
@@ -1984,7 +2047,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="17"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="8" t="s">
         <v>65</v>
       </c>
@@ -1994,7 +2057,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="17"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="8" t="s">
         <v>66</v>
       </c>
@@ -2004,7 +2067,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2016,7 +2079,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="17"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="1" t="s">
         <v>69</v>
       </c>
@@ -2026,7 +2089,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="17"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="1" t="s">
         <v>70</v>
       </c>
@@ -2036,7 +2099,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="17"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="1" t="s">
         <v>71</v>
       </c>
@@ -2046,7 +2109,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="17"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="1" t="s">
         <v>72</v>
       </c>
@@ -2056,7 +2119,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="17"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="1" t="s">
         <v>73</v>
       </c>
@@ -2066,7 +2129,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="1" t="s">
         <v>74</v>
       </c>
@@ -2076,7 +2139,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="17"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2088,7 +2151,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="17"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="1" t="s">
         <v>77</v>
       </c>
@@ -2098,7 +2161,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="17"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="1" t="s">
         <v>78</v>
       </c>
@@ -2108,7 +2171,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="1" t="s">
         <v>79</v>
       </c>
@@ -2118,7 +2181,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="17"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
@@ -2128,7 +2191,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="17"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="1" t="s">
         <v>81</v>
       </c>
@@ -2138,7 +2201,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="21"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="1" t="s">
         <v>83</v>
       </c>
@@ -2148,7 +2211,7 @@
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2160,7 +2223,7 @@
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="17"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="1" t="s">
         <v>86</v>
       </c>
@@ -2170,7 +2233,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="17"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="1" t="s">
         <v>87</v>
       </c>
@@ -2180,7 +2243,7 @@
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="17"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="1" t="s">
         <v>88</v>
       </c>
@@ -2192,7 +2255,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="17"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="1" t="s">
         <v>89</v>
       </c>
@@ -2202,7 +2265,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="17"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="1" t="s">
         <v>90</v>
       </c>
@@ -2214,7 +2277,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="17"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="1" t="s">
         <v>91</v>
       </c>
@@ -2224,7 +2287,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="17"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="1" t="s">
         <v>92</v>
       </c>
@@ -2234,7 +2297,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="17"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="1" t="s">
         <v>93</v>
       </c>
@@ -2244,7 +2307,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="17"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="1" t="s">
         <v>94</v>
       </c>
@@ -2254,7 +2317,7 @@
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2265,122 +2328,140 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="17"/>
+    <row r="85" spans="2:5" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="18"/>
       <c r="C85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E85" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="17"/>
-      <c r="C86" s="22" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="18" t="s">
-        <v>167</v>
+      <c r="D86" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="17"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="19"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="29"/>
     </row>
     <row r="88" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="17"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="E88" s="19"/>
+      <c r="E88" s="27"/>
     </row>
     <row r="89" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="17"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="19"/>
+      <c r="D89" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="90" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="17"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D90" s="2"/>
-      <c r="E90" s="19"/>
+      <c r="E90" s="27"/>
     </row>
     <row r="91" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="17"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="19"/>
+      <c r="D91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" s="27"/>
     </row>
     <row r="92" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="17"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="19"/>
+      <c r="E92" s="27"/>
     </row>
     <row r="93" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="17"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="19"/>
+      <c r="D93" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E93" s="27"/>
     </row>
     <row r="94" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="17"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="19"/>
+      <c r="E94" s="27"/>
     </row>
     <row r="95" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="17"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D95" s="2"/>
-      <c r="E95" s="19"/>
+      <c r="E95" s="27" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="96" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="17"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="19"/>
+      <c r="E96" s="27"/>
     </row>
     <row r="97" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="17"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="19"/>
+      <c r="D97" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="98" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="17"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="20"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="21"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="1" t="s">
         <v>110</v>
       </c>
@@ -2392,108 +2473,109 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="19" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="17"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="19"/>
+      <c r="E101" s="20"/>
     </row>
     <row r="102" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="17"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D102" s="2"/>
-      <c r="E102" s="19"/>
+      <c r="E102" s="20"/>
     </row>
     <row r="103" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="17"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="19"/>
+      <c r="E103" s="20"/>
     </row>
     <row r="104" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="17"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D104" s="2"/>
-      <c r="E104" s="19"/>
+      <c r="E104" s="20"/>
     </row>
     <row r="105" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="17"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="E105" s="19"/>
+      <c r="E105" s="20"/>
     </row>
     <row r="106" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="19"/>
+      <c r="E106" s="20"/>
     </row>
     <row r="107" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="17"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D107" s="2"/>
-      <c r="E107" s="19"/>
+      <c r="E107" s="20"/>
     </row>
     <row r="108" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="17"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="19"/>
+      <c r="E108" s="20"/>
     </row>
     <row r="109" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="17"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="19"/>
+      <c r="E109" s="20"/>
     </row>
     <row r="110" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="17"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="19"/>
+      <c r="E110" s="20"/>
     </row>
     <row r="111" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="17"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="20"/>
+      <c r="E111" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:E111"/>
   <mergeCells count="16">
+    <mergeCell ref="E86:E87"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="B17:B19"/>
@@ -2508,7 +2590,6 @@
     <mergeCell ref="B74:B83"/>
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E98"/>
     <mergeCell ref="B84:B99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
